--- a/excel/luban/Defines/__tables__.xlsx
+++ b/excel/luban/Defines/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>cardScore.xlsx</t>
+  </si>
+  <si>
+    <t>cfg.GDRandomCard</t>
+  </si>
+  <si>
+    <t>GDRandomCardData</t>
+  </si>
+  <si>
+    <t>randomCard.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1155,13 +1164,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.65833333333333" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.65833333333333" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="34.8333333333333" customWidth="1"/>
     <col min="3" max="3" width="31.6583333333333" customWidth="1"/>
@@ -1316,6 +1325,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
